--- a/data/Scenario.xlsx
+++ b/data/Scenario.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20367"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B5D8E5-F37F-4A17-AB2C-A0B345D5F2BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABF9F43-D88C-4F3D-A160-83B9771E5ADD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3196,15 +3196,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>41922</xdr:colOff>
+      <xdr:colOff>89547</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>131454</xdr:rowOff>
+      <xdr:rowOff>83829</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3233,7 +3233,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4581525" y="3143250"/>
+          <a:off x="4629150" y="3095625"/>
           <a:ext cx="5852172" cy="4389129"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3287,15 +3287,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>222897</xdr:colOff>
+      <xdr:colOff>108597</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>150504</xdr:rowOff>
+      <xdr:rowOff>179079</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3324,7 +3324,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4762500" y="3162300"/>
+          <a:off x="4648200" y="3190875"/>
           <a:ext cx="5852172" cy="4389129"/>
         </a:xfrm>
         <a:prstGeom prst="rect">

--- a/data/Scenario.xlsx
+++ b/data/Scenario.xlsx
@@ -3,16 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20367"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABF9F43-D88C-4F3D-A160-83B9771E5ADD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8373350-9851-49EE-8986-A4678DEA5C6A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Benchmark" sheetId="1" r:id="rId1"/>
     <sheet name="Topology" sheetId="2" r:id="rId2"/>
-    <sheet name="todo" sheetId="3" r:id="rId3"/>
+    <sheet name="10.4.L.5.2" sheetId="6" r:id="rId3"/>
     <sheet name="40.10.L.5.2" sheetId="4" r:id="rId4"/>
-    <sheet name="10.4.L.5.2" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
   <si>
     <t>Benckmark4</t>
   </si>
@@ -78,9 +77,6 @@
   </si>
   <si>
     <t>#UE</t>
-  </si>
-  <si>
-    <t>channel h</t>
   </si>
   <si>
     <t>UE position</t>
@@ -142,14 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>change observation from s1 -&gt; s2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enlarge Toplology 4*4-&gt; 40*10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Near-CL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -169,12 +157,33 @@
     <t>RL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[s1]
+SINR
+clustering_state
+caching_state
+reqStatistic_norm
+Req</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Change/30 Itr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +203,13 @@
       <color rgb="FF000000"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -263,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -277,6 +293,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -295,6 +312,612 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>RL vs SNR-based Clustering+Popularity-Based Caching (10.4.L.5.2)</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10.4.L.5.2'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nctc_EE(cacheMode='pref')</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'10.4.L.5.2'!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'10.4.L.5.2'!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.2367576662560899E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24582492201332601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75350985795145498</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7532818692747498</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7532818692747498</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7532818692747498</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7532818692747498</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7532818692747498</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7532818692747498</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7532818692747498</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7A7C-4688-A5B1-16042621E787}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10.4.L.5.2'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nctc_EE(cacheMode='req')</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'10.4.L.5.2'!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'10.4.L.5.2'!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.24604334328817001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9331987522132201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.823707016980499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71.585328601143701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71.585328601143701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71.585328601143701</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71.585328601143701</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>71.585328601143701</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>71.585328601143701</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>71.585328601143701</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7A7C-4688-A5B1-16042621E787}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10.4.L.5.2'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'10.4.L.5.2'!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'10.4.L.5.2'!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>254.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>254.48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>254.48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>254.48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>254.48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>254.48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>254.48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>254.48</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>254.48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>254.48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7A7C-4688-A5B1-16042621E787}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="780349888"/>
+        <c:axId val="997902272"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="780349888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="997902272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="997902272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="780349888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -1437,612 +2060,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>RL vs SNR-based Clustering+Popularity-Based Caching (10.4.L.5.2)</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'10.4.L.5.2'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>nctc_EE(cacheMode='pref')</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'10.4.L.5.2'!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'10.4.L.5.2'!$B$2:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2.2367576662560899E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.24582492201332601</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.75350985795145498</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.7532818692747498</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.7532818692747498</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.7532818692747498</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.7532818692747498</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.7532818692747498</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.7532818692747498</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.7532818692747498</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7A7C-4688-A5B1-16042621E787}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'10.4.L.5.2'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>nctc_EE(cacheMode='req')</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'10.4.L.5.2'!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'10.4.L.5.2'!$C$2:$C$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.24604334328817001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.9331987522132201</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15.823707016980499</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>71.585328601143701</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>71.585328601143701</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>71.585328601143701</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>71.585328601143701</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>71.585328601143701</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>71.585328601143701</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>71.585328601143701</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7A7C-4688-A5B1-16042621E787}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'10.4.L.5.2'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>RL</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'10.4.L.5.2'!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'10.4.L.5.2'!$D$2:$D$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>254.48</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>254.48</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>254.48</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>254.48</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>254.48</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>254.48</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>254.48</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>254.48</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>254.48</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>254.48</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7A7C-4688-A5B1-16042621E787}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="780349888"/>
-        <c:axId val="997902272"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="780349888"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="997902272"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="997902272"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="780349888"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3157,61 +3174,75 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="圖表 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{611FAE68-CE01-457A-A7AE-6411F40F2D09}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>89547</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>83829</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>704849</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="圖片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BE88520-9B8A-470C-9D36-86AF0B752C86}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D13F19A-8E15-4BBE-B298-A3F5FF5433E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7639050" y="28574"/>
+          <a:ext cx="4635500" cy="3476625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>585786</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>413397</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>17153</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="圖片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B951B361-3002-45D2-A3EC-264B89E8E224}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3233,8 +3264,214 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4629150" y="3095625"/>
-          <a:ext cx="5852172" cy="4389129"/>
+          <a:off x="7629525" y="3386136"/>
+          <a:ext cx="4575822" cy="3431867"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>619125</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線單箭頭接點 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{086462BD-3516-4487-8A6F-A711B251C628}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6743700" y="5019675"/>
+          <a:ext cx="923925" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>962025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>561975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線單箭頭接點 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D60BAA53-7604-46B3-A6D7-635DDF463BCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6724650" y="1362075"/>
+          <a:ext cx="923925" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>528636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="圖片 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EDD4880-B41A-4B9A-8595-CA7F860E70FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12182474" y="3328986"/>
+          <a:ext cx="4489451" cy="3367089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>500063</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="圖片 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03FB31F7-CBF4-4553-AA12-726D930B8301}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12280900" y="66675"/>
+          <a:ext cx="4311650" cy="3233738"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3286,16 +3523,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>108597</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>179079</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>137172</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>102879</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3324,7 +3561,198 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4648200" y="3190875"/>
+          <a:off x="5895975" y="2914650"/>
+          <a:ext cx="5852172" cy="4389129"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>365772</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>140979</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="圖片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F628C73B-76BB-4423-973F-DA8760101FCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28575" y="2952750"/>
+          <a:ext cx="5852172" cy="4389129"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{611FAE68-CE01-457A-A7AE-6411F40F2D09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>489597</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>74304</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="圖片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BE88520-9B8A-470C-9D36-86AF0B752C86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9906000" y="2886075"/>
+          <a:ext cx="5852172" cy="4389129"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>489597</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>112404</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="圖片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D206AAC-2F79-4420-9532-C2876640CD77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4419600" y="2924175"/>
           <a:ext cx="5852172" cy="4389129"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3646,7 +4074,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
@@ -3707,10 +4135,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2986BB-8F33-4471-B2CE-FA432FAA1E32}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3722,7 +4150,7 @@
     <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -3735,31 +4163,31 @@
         <v>17</v>
       </c>
       <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
         <v>24</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
@@ -3776,22 +4204,22 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J2">
-        <v>136.13999999999999</v>
+        <v>141.21</v>
       </c>
       <c r="K2">
         <v>142.16</v>
@@ -3811,25 +4239,25 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J3">
         <v>132.91999999999999</v>
       </c>
       <c r="K3">
-        <v>145.66999999999999</v>
+        <v>142.16</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
@@ -3846,33 +4274,33 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J4">
         <v>132.91999999999999</v>
       </c>
       <c r="K4">
-        <v>145.66999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
+        <v>142.16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -3881,27 +4309,33 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s">
-        <v>22</v>
+        <v>36</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="J5">
+        <v>127.57</v>
+      </c>
+      <c r="K5">
+        <v>142.16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="B6">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -3910,48 +4344,228 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>400</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D748459C-3F90-4669-9DE3-16C814812750}">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FDA256B-DC29-4143-B768-1CA233B3CDB4}">
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B35" sqref="B34:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B1" t="s">
         <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2.2367576662560899E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.24604334328817001</v>
+      </c>
+      <c r="D2">
+        <v>254.48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.24582492201332601</v>
+      </c>
+      <c r="C3">
+        <v>3.9331987522132201</v>
+      </c>
+      <c r="D3">
+        <v>254.48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.75350985795145498</v>
+      </c>
+      <c r="C4">
+        <v>15.823707016980499</v>
+      </c>
+      <c r="D4">
+        <v>254.48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2.7532818692747498</v>
+      </c>
+      <c r="C5">
+        <v>71.585328601143701</v>
+      </c>
+      <c r="D5">
+        <v>254.48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2.7532818692747498</v>
+      </c>
+      <c r="C6">
+        <v>71.585328601143701</v>
+      </c>
+      <c r="D6">
+        <v>254.48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2.7532818692747498</v>
+      </c>
+      <c r="C7">
+        <v>71.585328601143701</v>
+      </c>
+      <c r="D7">
+        <v>254.48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2.7532818692747498</v>
+      </c>
+      <c r="C8">
+        <v>71.585328601143701</v>
+      </c>
+      <c r="D8">
+        <v>254.48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2.7532818692747498</v>
+      </c>
+      <c r="C9">
+        <v>71.585328601143701</v>
+      </c>
+      <c r="D9">
+        <v>254.48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2.7532818692747498</v>
+      </c>
+      <c r="C10">
+        <v>71.585328601143701</v>
+      </c>
+      <c r="D10">
+        <v>254.48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2.7532818692747498</v>
+      </c>
+      <c r="C11">
+        <v>71.585328601143701</v>
+      </c>
+      <c r="D11">
+        <v>254.48</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3959,7 +4573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3AD492-D7C7-4493-A452-D08A68A80FDE}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -3972,16 +4586,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
         <v>34</v>
-      </c>
-      <c r="B1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4542,182 +5156,6 @@
       </c>
       <c r="D41">
         <v>6.33</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FDA256B-DC29-4143-B768-1CA233B3CDB4}">
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2.2367576662560899E-2</v>
-      </c>
-      <c r="C2">
-        <v>0.24604334328817001</v>
-      </c>
-      <c r="D2">
-        <v>254.48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0.24582492201332601</v>
-      </c>
-      <c r="C3">
-        <v>3.9331987522132201</v>
-      </c>
-      <c r="D3">
-        <v>254.48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0.75350985795145498</v>
-      </c>
-      <c r="C4">
-        <v>15.823707016980499</v>
-      </c>
-      <c r="D4">
-        <v>254.48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>2.7532818692747498</v>
-      </c>
-      <c r="C5">
-        <v>71.585328601143701</v>
-      </c>
-      <c r="D5">
-        <v>254.48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>2.7532818692747498</v>
-      </c>
-      <c r="C6">
-        <v>71.585328601143701</v>
-      </c>
-      <c r="D6">
-        <v>254.48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>2.7532818692747498</v>
-      </c>
-      <c r="C7">
-        <v>71.585328601143701</v>
-      </c>
-      <c r="D7">
-        <v>254.48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>2.7532818692747498</v>
-      </c>
-      <c r="C8">
-        <v>71.585328601143701</v>
-      </c>
-      <c r="D8">
-        <v>254.48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>2.7532818692747498</v>
-      </c>
-      <c r="C9">
-        <v>71.585328601143701</v>
-      </c>
-      <c r="D9">
-        <v>254.48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>2.7532818692747498</v>
-      </c>
-      <c r="C10">
-        <v>71.585328601143701</v>
-      </c>
-      <c r="D10">
-        <v>254.48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>2.7532818692747498</v>
-      </c>
-      <c r="C11">
-        <v>71.585328601143701</v>
-      </c>
-      <c r="D11">
-        <v>254.48</v>
       </c>
     </row>
   </sheetData>

--- a/data/Scenario.xlsx
+++ b/data/Scenario.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20367"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20368"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8373350-9851-49EE-8986-A4678DEA5C6A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E752A96-9100-4965-9945-E1F6851CABC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Benchmark" sheetId="1" r:id="rId1"/>
     <sheet name="Topology" sheetId="2" r:id="rId2"/>
-    <sheet name="10.4.L.5.2" sheetId="6" r:id="rId3"/>
-    <sheet name="40.10.L.5.2" sheetId="4" r:id="rId4"/>
+    <sheet name="PK" sheetId="7" r:id="rId3"/>
+    <sheet name="10.4.L.5.2" sheetId="6" r:id="rId4"/>
+    <sheet name="40.10.L.5.2" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
   <si>
     <t>Benckmark4</t>
   </si>
@@ -178,6 +179,43 @@
     <t>Change/30 Itr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>不知道preferrence vector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知道preferrence vector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不須決定最大連線數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要依照L計算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以最大EE為目標</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有caching是最小化Hit Rate來最小P_sys，間接最小化EE
+畫出所有L，找一個最好的EE跟RL PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以嘗試SINR Benchmark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">坤霖: Req的itr變大, 簡老師: Req先不變, implement time variant channel </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Benchmark(知道越多越好)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -287,13 +325,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -4053,10 +4091,10 @@
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -4137,7 +4175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2986BB-8F33-4471-B2CE-FA432FAA1E32}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
@@ -4212,7 +4250,7 @@
       <c r="G2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -4317,7 +4355,7 @@
       <c r="G5" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="3" t="s">
         <v>38</v>
       </c>
       <c r="I5" s="2" t="s">
@@ -4394,10 +4432,73 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FEF6104-0AEE-4F14-8857-912AAFD3EEC7}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FDA256B-DC29-4143-B768-1CA233B3CDB4}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B35" sqref="B34:B35"/>
     </sheetView>
   </sheetViews>
@@ -4569,11 +4670,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3AD492-D7C7-4493-A452-D08A68A80FDE}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>

--- a/data/Scenario.xlsx
+++ b/data/Scenario.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20368"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E752A96-9100-4965-9945-E1F6851CABC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF155002-8845-43B5-82E5-A68C37D67AB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Benchmark" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="PK" sheetId="7" r:id="rId3"/>
     <sheet name="10.4.L.5.2" sheetId="6" r:id="rId4"/>
     <sheet name="40.10.L.5.2" sheetId="4" r:id="rId5"/>
+    <sheet name="工作表2" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="50">
   <si>
     <t>Benckmark4</t>
   </si>
@@ -215,6 +216,12 @@
   <si>
     <t>Benchmark(知道越多越好)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L=</t>
+  </si>
+  <si>
+    <t>,nctc_EE=</t>
   </si>
 </sst>
 </file>
@@ -499,34 +506,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.2367576662560899E-2</c:v>
+                  <c:v>31.600636862172099</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24582492201332601</c:v>
+                  <c:v>15.280563457700801</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75350985795145498</c:v>
+                  <c:v>9.6395710101351</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7532818692747498</c:v>
+                  <c:v>9.91608089033606</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7532818692747498</c:v>
+                  <c:v>7.3056261220969496</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7532818692747498</c:v>
+                  <c:v>7.1855131420997802</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.7532818692747498</c:v>
+                  <c:v>8.4611040893872094</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.7532818692747498</c:v>
+                  <c:v>7.2922980822273402</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.7532818692747498</c:v>
+                  <c:v>5.7190759729595602</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.7532818692747498</c:v>
+                  <c:v>4.6992314371043102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -610,34 +617,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.24604334328817001</c:v>
+                  <c:v>347.60700548389298</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9331987522132201</c:v>
+                  <c:v>244.48901532321401</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.823707016980499</c:v>
+                  <c:v>250.628846263512</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>71.585328601143701</c:v>
+                  <c:v>257.81810314873701</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>71.585328601143701</c:v>
+                  <c:v>263.00254039548997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>71.585328601143701</c:v>
+                  <c:v>258.678473115592</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>71.585328601143701</c:v>
+                  <c:v>262.29422677100303</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>71.585328601143701</c:v>
+                  <c:v>262.52273096018399</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>71.585328601143701</c:v>
+                  <c:v>263.077494756139</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>71.585328601143701</c:v>
+                  <c:v>263.15696047784098</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1192,124 +1199,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>2.9052675730831901</c:v>
+                  <c:v>50.278647507760098</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5930827092282001</c:v>
+                  <c:v>30.844468358815</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35255113288558398</c:v>
+                  <c:v>9.5973953605985205</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.62734237561727402</c:v>
+                  <c:v>7.9060671240462099</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1969655758075299</c:v>
+                  <c:v>6.8843306684492704</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.17167179137263</c:v>
+                  <c:v>6.6817721569403599</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1281911545354699</c:v>
+                  <c:v>6.1665863354616004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.10995571023382</c:v>
+                  <c:v>5.0150188549283996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.94121854869955202</c:v>
+                  <c:v>4.6091287345757399</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.83456064969959298</c:v>
+                  <c:v>4.0534044602129002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.83456064969959298</c:v>
+                  <c:v>3.6945347491799199</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.83456064969959298</c:v>
+                  <c:v>3.29529334894867</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.83456064969959298</c:v>
+                  <c:v>3.0518494586457199</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.83456064969959298</c:v>
+                  <c:v>2.93814500558697</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.83456064969959298</c:v>
+                  <c:v>2.83548645020378</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.83456064969959298</c:v>
+                  <c:v>2.8626671529445198</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.83456064969959298</c:v>
+                  <c:v>2.8101611903468799</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.83456064969959298</c:v>
+                  <c:v>2.6759108985506801</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.83456064969959298</c:v>
+                  <c:v>2.5500580594208802</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.83456064969959298</c:v>
+                  <c:v>2.55245238519946</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.83456064969959298</c:v>
+                  <c:v>2.4760421566603101</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.83456064969959298</c:v>
+                  <c:v>2.3703869528026198</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.83456064969959298</c:v>
+                  <c:v>2.3065365505172601</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.83456064969959298</c:v>
+                  <c:v>2.0992146151880702</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.83456064969959298</c:v>
+                  <c:v>2.0733585207937399</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.83456064969959298</c:v>
+                  <c:v>1.9978811459824</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.83456064969959298</c:v>
+                  <c:v>1.8606218801264001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.83456064969959298</c:v>
+                  <c:v>1.79916853578386</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.83456064969959298</c:v>
+                  <c:v>1.68679466796924</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.83456064969959298</c:v>
+                  <c:v>1.6196532427019501</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.83456064969959298</c:v>
+                  <c:v>1.5728308158192801</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.83456064969959298</c:v>
+                  <c:v>1.55854916737972</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.83456064969959298</c:v>
+                  <c:v>1.5150528169355599</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.83456064969959298</c:v>
+                  <c:v>1.46063052381549</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.83456064969959298</c:v>
+                  <c:v>1.4349771102779501</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.83456064969959298</c:v>
+                  <c:v>1.39793543685213</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.83456064969959298</c:v>
+                  <c:v>1.36265366764205</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.83456064969959298</c:v>
+                  <c:v>1.3401173128766</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.83456064969959298</c:v>
+                  <c:v>1.31831042772499</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.83456064969959298</c:v>
+                  <c:v>1.3076775245217001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1483,124 +1490,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>8.0932453821603296</c:v>
+                  <c:v>301.67188504656099</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9987439232530901</c:v>
+                  <c:v>30.844468358815</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.50193720614218795</c:v>
+                  <c:v>15.2429220433035</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98468929843724096</c:v>
+                  <c:v>12.7465163836663</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5596824169613299</c:v>
+                  <c:v>13.8961489418698</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.41782132737529</c:v>
+                  <c:v>12.910542811715199</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.42286794863055</c:v>
+                  <c:v>11.0819812405396</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3129963889351199</c:v>
+                  <c:v>9.1942012340353898</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1352842288437901</c:v>
+                  <c:v>8.2866250653542508</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.02509961081822</c:v>
+                  <c:v>6.7201179208792796</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.02509961081822</c:v>
+                  <c:v>5.5550918171122499</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.02509961081822</c:v>
+                  <c:v>5.1751586822415403</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.02509961081822</c:v>
+                  <c:v>4.4549986350345696</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.02509961081822</c:v>
+                  <c:v>3.99830041997402</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.02509961081822</c:v>
+                  <c:v>3.6304826511955</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.02509961081822</c:v>
+                  <c:v>3.64695952361425</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.02509961081822</c:v>
+                  <c:v>3.4106229831560499</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.02509961081822</c:v>
+                  <c:v>3.2132424042837502</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.02509961081822</c:v>
+                  <c:v>2.97664769761397</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.02509961081822</c:v>
+                  <c:v>2.8220776371571499</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.02509961081822</c:v>
+                  <c:v>2.72869951958483</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.02509961081822</c:v>
+                  <c:v>2.6005216084145202</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.02509961081822</c:v>
+                  <c:v>2.4467515383906502</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.02509961081822</c:v>
+                  <c:v>2.30973757086596</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.02509961081822</c:v>
+                  <c:v>2.2157595181010001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.02509961081822</c:v>
+                  <c:v>2.1581389919168199</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.02509961081822</c:v>
+                  <c:v>2.0238343257515199</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.02509961081822</c:v>
+                  <c:v>1.9052515862428101</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.02509961081822</c:v>
+                  <c:v>1.77967983691028</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.02509961081822</c:v>
+                  <c:v>1.7232557955400201</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.02509961081822</c:v>
+                  <c:v>1.6532413892251701</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.02509961081822</c:v>
+                  <c:v>1.60493455926603</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.02509961081822</c:v>
+                  <c:v>1.5439660386328</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.02509961081822</c:v>
+                  <c:v>1.5153357868797399</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.02509961081822</c:v>
+                  <c:v>1.46087922418188</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.02509961081822</c:v>
+                  <c:v>1.42250372220982</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.02509961081822</c:v>
+                  <c:v>1.37422118604309</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.02509961081822</c:v>
+                  <c:v>1.3401173128766</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.02509961081822</c:v>
+                  <c:v>1.31831042772499</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.02509961081822</c:v>
+                  <c:v>1.3076775245217001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4176,7 +4183,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4498,8 +4505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FDA256B-DC29-4143-B768-1CA233B3CDB4}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B34:B35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4528,10 +4535,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.2367576662560899E-2</v>
+        <v>31.600636862172099</v>
       </c>
       <c r="C2">
-        <v>0.24604334328817001</v>
+        <v>347.60700548389298</v>
       </c>
       <c r="D2">
         <v>254.48</v>
@@ -4542,10 +4549,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.24582492201332601</v>
+        <v>15.280563457700801</v>
       </c>
       <c r="C3">
-        <v>3.9331987522132201</v>
+        <v>244.48901532321401</v>
       </c>
       <c r="D3">
         <v>254.48</v>
@@ -4556,10 +4563,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.75350985795145498</v>
+        <v>9.6395710101351</v>
       </c>
       <c r="C4">
-        <v>15.823707016980499</v>
+        <v>250.628846263512</v>
       </c>
       <c r="D4">
         <v>254.48</v>
@@ -4570,10 +4577,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2.7532818692747498</v>
+        <v>9.91608089033606</v>
       </c>
       <c r="C5">
-        <v>71.585328601143701</v>
+        <v>257.81810314873701</v>
       </c>
       <c r="D5">
         <v>254.48</v>
@@ -4584,10 +4591,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2.7532818692747498</v>
+        <v>7.3056261220969496</v>
       </c>
       <c r="C6">
-        <v>71.585328601143701</v>
+        <v>263.00254039548997</v>
       </c>
       <c r="D6">
         <v>254.48</v>
@@ -4598,10 +4605,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2.7532818692747498</v>
+        <v>7.1855131420997802</v>
       </c>
       <c r="C7">
-        <v>71.585328601143701</v>
+        <v>258.678473115592</v>
       </c>
       <c r="D7">
         <v>254.48</v>
@@ -4612,10 +4619,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2.7532818692747498</v>
+        <v>8.4611040893872094</v>
       </c>
       <c r="C8">
-        <v>71.585328601143701</v>
+        <v>262.29422677100303</v>
       </c>
       <c r="D8">
         <v>254.48</v>
@@ -4626,10 +4633,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2.7532818692747498</v>
+        <v>7.2922980822273402</v>
       </c>
       <c r="C9">
-        <v>71.585328601143701</v>
+        <v>262.52273096018399</v>
       </c>
       <c r="D9">
         <v>254.48</v>
@@ -4640,10 +4647,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2.7532818692747498</v>
+        <v>5.7190759729595602</v>
       </c>
       <c r="C10">
-        <v>71.585328601143701</v>
+        <v>263.077494756139</v>
       </c>
       <c r="D10">
         <v>254.48</v>
@@ -4654,10 +4661,12 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2.7532818692747498</v>
+        <f xml:space="preserve"> 4.69923143710431</f>
+        <v>4.6992314371043102</v>
       </c>
       <c r="C11">
-        <v>71.585328601143701</v>
+        <f xml:space="preserve"> 263.156960477841</f>
+        <v>263.15696047784098</v>
       </c>
       <c r="D11">
         <v>254.48</v>
@@ -4674,8 +4683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3AD492-D7C7-4493-A452-D08A68A80FDE}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4704,10 +4713,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.9052675730831901</v>
+        <v>50.278647507760098</v>
       </c>
       <c r="C2">
-        <v>8.0932453821603296</v>
+        <v>301.67188504656099</v>
       </c>
       <c r="D2">
         <v>6.33</v>
@@ -4718,10 +4727,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.5930827092282001</v>
+        <v>30.844468358815</v>
       </c>
       <c r="C3">
-        <v>2.9987439232530901</v>
+        <v>30.844468358815</v>
       </c>
       <c r="D3">
         <v>6.33</v>
@@ -4732,10 +4741,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.35255113288558398</v>
+        <v>9.5973953605985205</v>
       </c>
       <c r="C4">
-        <v>0.50193720614218795</v>
+        <v>15.2429220433035</v>
       </c>
       <c r="D4">
         <v>6.33</v>
@@ -4746,10 +4755,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.62734237561727402</v>
+        <v>7.9060671240462099</v>
       </c>
       <c r="C5">
-        <v>0.98468929843724096</v>
+        <v>12.7465163836663</v>
       </c>
       <c r="D5">
         <v>6.33</v>
@@ -4760,10 +4769,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1.1969655758075299</v>
+        <v>6.8843306684492704</v>
       </c>
       <c r="C6">
-        <v>1.5596824169613299</v>
+        <v>13.8961489418698</v>
       </c>
       <c r="D6">
         <v>6.33</v>
@@ -4774,10 +4783,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1.17167179137263</v>
+        <v>6.6817721569403599</v>
       </c>
       <c r="C7">
-        <v>1.41782132737529</v>
+        <v>12.910542811715199</v>
       </c>
       <c r="D7">
         <v>6.33</v>
@@ -4788,10 +4797,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1.1281911545354699</v>
+        <v>6.1665863354616004</v>
       </c>
       <c r="C8">
-        <v>1.42286794863055</v>
+        <v>11.0819812405396</v>
       </c>
       <c r="D8">
         <v>6.33</v>
@@ -4802,10 +4811,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1.10995571023382</v>
+        <v>5.0150188549283996</v>
       </c>
       <c r="C9">
-        <v>1.3129963889351199</v>
+        <v>9.1942012340353898</v>
       </c>
       <c r="D9">
         <v>6.33</v>
@@ -4816,10 +4825,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.94121854869955202</v>
+        <v>4.6091287345757399</v>
       </c>
       <c r="C10">
-        <v>1.1352842288437901</v>
+        <v>8.2866250653542508</v>
       </c>
       <c r="D10">
         <v>6.33</v>
@@ -4830,10 +4839,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.83456064969959298</v>
+        <v>4.0534044602129002</v>
       </c>
       <c r="C11">
-        <v>1.02509961081822</v>
+        <v>6.7201179208792796</v>
       </c>
       <c r="D11">
         <v>6.33</v>
@@ -4844,10 +4853,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.83456064969959298</v>
+        <v>3.6945347491799199</v>
       </c>
       <c r="C12">
-        <v>1.02509961081822</v>
+        <v>5.5550918171122499</v>
       </c>
       <c r="D12">
         <v>6.33</v>
@@ -4858,10 +4867,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.83456064969959298</v>
+        <v>3.29529334894867</v>
       </c>
       <c r="C13">
-        <v>1.02509961081822</v>
+        <v>5.1751586822415403</v>
       </c>
       <c r="D13">
         <v>6.33</v>
@@ -4872,10 +4881,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.83456064969959298</v>
+        <v>3.0518494586457199</v>
       </c>
       <c r="C14">
-        <v>1.02509961081822</v>
+        <v>4.4549986350345696</v>
       </c>
       <c r="D14">
         <v>6.33</v>
@@ -4886,10 +4895,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.83456064969959298</v>
+        <v>2.93814500558697</v>
       </c>
       <c r="C15">
-        <v>1.02509961081822</v>
+        <v>3.99830041997402</v>
       </c>
       <c r="D15">
         <v>6.33</v>
@@ -4900,10 +4909,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.83456064969959298</v>
+        <v>2.83548645020378</v>
       </c>
       <c r="C16">
-        <v>1.02509961081822</v>
+        <v>3.6304826511955</v>
       </c>
       <c r="D16">
         <v>6.33</v>
@@ -4914,10 +4923,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.83456064969959298</v>
+        <v>2.8626671529445198</v>
       </c>
       <c r="C17">
-        <v>1.02509961081822</v>
+        <v>3.64695952361425</v>
       </c>
       <c r="D17">
         <v>6.33</v>
@@ -4928,10 +4937,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.83456064969959298</v>
+        <v>2.8101611903468799</v>
       </c>
       <c r="C18">
-        <v>1.02509961081822</v>
+        <v>3.4106229831560499</v>
       </c>
       <c r="D18">
         <v>6.33</v>
@@ -4942,10 +4951,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.83456064969959298</v>
+        <v>2.6759108985506801</v>
       </c>
       <c r="C19">
-        <v>1.02509961081822</v>
+        <v>3.2132424042837502</v>
       </c>
       <c r="D19">
         <v>6.33</v>
@@ -4956,10 +4965,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.83456064969959298</v>
+        <v>2.5500580594208802</v>
       </c>
       <c r="C20">
-        <v>1.02509961081822</v>
+        <v>2.97664769761397</v>
       </c>
       <c r="D20">
         <v>6.33</v>
@@ -4970,10 +4979,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.83456064969959298</v>
+        <v>2.55245238519946</v>
       </c>
       <c r="C21">
-        <v>1.02509961081822</v>
+        <v>2.8220776371571499</v>
       </c>
       <c r="D21">
         <v>6.33</v>
@@ -4984,10 +4993,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.83456064969959298</v>
+        <v>2.4760421566603101</v>
       </c>
       <c r="C22">
-        <v>1.02509961081822</v>
+        <v>2.72869951958483</v>
       </c>
       <c r="D22">
         <v>6.33</v>
@@ -4998,10 +5007,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.83456064969959298</v>
+        <v>2.3703869528026198</v>
       </c>
       <c r="C23">
-        <v>1.02509961081822</v>
+        <v>2.6005216084145202</v>
       </c>
       <c r="D23">
         <v>6.33</v>
@@ -5012,10 +5021,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.83456064969959298</v>
+        <v>2.3065365505172601</v>
       </c>
       <c r="C24">
-        <v>1.02509961081822</v>
+        <v>2.4467515383906502</v>
       </c>
       <c r="D24">
         <v>6.33</v>
@@ -5026,10 +5035,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.83456064969959298</v>
+        <v>2.0992146151880702</v>
       </c>
       <c r="C25">
-        <v>1.02509961081822</v>
+        <v>2.30973757086596</v>
       </c>
       <c r="D25">
         <v>6.33</v>
@@ -5040,10 +5049,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.83456064969959298</v>
+        <v>2.0733585207937399</v>
       </c>
       <c r="C26">
-        <v>1.02509961081822</v>
+        <v>2.2157595181010001</v>
       </c>
       <c r="D26">
         <v>6.33</v>
@@ -5054,10 +5063,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.83456064969959298</v>
+        <v>1.9978811459824</v>
       </c>
       <c r="C27">
-        <v>1.02509961081822</v>
+        <v>2.1581389919168199</v>
       </c>
       <c r="D27">
         <v>6.33</v>
@@ -5068,10 +5077,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.83456064969959298</v>
+        <v>1.8606218801264001</v>
       </c>
       <c r="C28">
-        <v>1.02509961081822</v>
+        <v>2.0238343257515199</v>
       </c>
       <c r="D28">
         <v>6.33</v>
@@ -5082,10 +5091,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.83456064969959298</v>
+        <v>1.79916853578386</v>
       </c>
       <c r="C29">
-        <v>1.02509961081822</v>
+        <v>1.9052515862428101</v>
       </c>
       <c r="D29">
         <v>6.33</v>
@@ -5096,10 +5105,10 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.83456064969959298</v>
+        <v>1.68679466796924</v>
       </c>
       <c r="C30">
-        <v>1.02509961081822</v>
+        <v>1.77967983691028</v>
       </c>
       <c r="D30">
         <v>6.33</v>
@@ -5110,10 +5119,10 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.83456064969959298</v>
+        <v>1.6196532427019501</v>
       </c>
       <c r="C31">
-        <v>1.02509961081822</v>
+        <v>1.7232557955400201</v>
       </c>
       <c r="D31">
         <v>6.33</v>
@@ -5124,10 +5133,10 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.83456064969959298</v>
+        <v>1.5728308158192801</v>
       </c>
       <c r="C32">
-        <v>1.02509961081822</v>
+        <v>1.6532413892251701</v>
       </c>
       <c r="D32">
         <v>6.33</v>
@@ -5138,10 +5147,10 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.83456064969959298</v>
+        <v>1.55854916737972</v>
       </c>
       <c r="C33">
-        <v>1.02509961081822</v>
+        <v>1.60493455926603</v>
       </c>
       <c r="D33">
         <v>6.33</v>
@@ -5152,10 +5161,10 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0.83456064969959298</v>
+        <v>1.5150528169355599</v>
       </c>
       <c r="C34">
-        <v>1.02509961081822</v>
+        <v>1.5439660386328</v>
       </c>
       <c r="D34">
         <v>6.33</v>
@@ -5166,10 +5175,10 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.83456064969959298</v>
+        <v>1.46063052381549</v>
       </c>
       <c r="C35">
-        <v>1.02509961081822</v>
+        <v>1.5153357868797399</v>
       </c>
       <c r="D35">
         <v>6.33</v>
@@ -5180,10 +5189,10 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.83456064969959298</v>
+        <v>1.4349771102779501</v>
       </c>
       <c r="C36">
-        <v>1.02509961081822</v>
+        <v>1.46087922418188</v>
       </c>
       <c r="D36">
         <v>6.33</v>
@@ -5194,10 +5203,10 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0.83456064969959298</v>
+        <v>1.39793543685213</v>
       </c>
       <c r="C37">
-        <v>1.02509961081822</v>
+        <v>1.42250372220982</v>
       </c>
       <c r="D37">
         <v>6.33</v>
@@ -5208,10 +5217,10 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>0.83456064969959298</v>
+        <v>1.36265366764205</v>
       </c>
       <c r="C38">
-        <v>1.02509961081822</v>
+        <v>1.37422118604309</v>
       </c>
       <c r="D38">
         <v>6.33</v>
@@ -5222,10 +5231,10 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0.83456064969959298</v>
+        <v>1.3401173128766</v>
       </c>
       <c r="C39">
-        <v>1.02509961081822</v>
+        <v>1.3401173128766</v>
       </c>
       <c r="D39">
         <v>6.33</v>
@@ -5236,10 +5245,10 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>0.83456064969959298</v>
+        <v>1.31831042772499</v>
       </c>
       <c r="C40">
-        <v>1.02509961081822</v>
+        <v>1.31831042772499</v>
       </c>
       <c r="D40">
         <v>6.33</v>
@@ -5250,10 +5259,10 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>0.83456064969959298</v>
+        <v>1.3076775245217001</v>
       </c>
       <c r="C41">
-        <v>1.02509961081822</v>
+        <v>1.3076775245217001</v>
       </c>
       <c r="D41">
         <v>6.33</v>
@@ -5264,4 +5273,583 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADC8946-7C3E-4BA7-848E-892B26A3208D}">
+  <dimension ref="A1:D40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1">
+        <v>50.278647507760098</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2">
+        <v>30.844468358815</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3">
+        <v>9.5973953605985205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4">
+        <v>7.9060671240462099</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5">
+        <v>6.8843306684492704</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6">
+        <v>6.6817721569403599</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7">
+        <v>6.1665863354616004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8">
+        <v>5.0150188549283996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9">
+        <v>4.6091287345757399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10">
+        <v>4.0534044602129002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11">
+        <v>3.6945347491799199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12">
+        <v>3.29529334894867</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13">
+        <v>3.0518494586457199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14">
+        <v>2.93814500558697</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15">
+        <v>2.83548645020378</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16">
+        <v>2.8626671529445198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17">
+        <v>2.8101611903468799</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18">
+        <v>2.6759108985506801</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19">
+        <v>2.5500580594208802</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20">
+        <v>2.55245238519946</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21">
+        <v>2.4760421566603101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22">
+        <v>2.3703869528026198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23">
+        <v>2.3065365505172601</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24">
+        <v>2.0992146151880702</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25">
+        <v>2.0733585207937399</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26">
+        <v>1.9978811459824</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27">
+        <v>1.8606218801264001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28">
+        <v>1.79916853578386</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29">
+        <v>1.68679466796924</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30">
+        <v>1.6196532427019501</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31">
+        <v>1.5728308158192801</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32">
+        <v>1.55854916737972</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33">
+        <v>1.5150528169355599</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34">
+        <v>1.46063052381549</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35">
+        <v>1.4349771102779501</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36">
+        <v>1.39793543685213</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37">
+        <v>1.36265366764205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38">
+        <v>1.3401173128766</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39">
+        <v>1.31831042772499</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>40</v>
+      </c>
+      <c r="C40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40">
+        <v>1.3076775245217001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/Scenario.xlsx
+++ b/data/Scenario.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20368"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF155002-8845-43B5-82E5-A68C37D67AB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FDE2E2-0927-4494-83C6-4249DC115955}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Benchmark" sheetId="1" r:id="rId1"/>
@@ -1781,124 +1781,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>6.33</c:v>
+                  <c:v>7.27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.33</c:v>
+                  <c:v>7.27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.33</c:v>
+                  <c:v>7.27</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.33</c:v>
+                  <c:v>7.27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.33</c:v>
+                  <c:v>7.27</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.33</c:v>
+                  <c:v>7.27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.33</c:v>
+                  <c:v>7.27</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.33</c:v>
+                  <c:v>7.27</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.33</c:v>
+                  <c:v>7.27</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.33</c:v>
+                  <c:v>7.27</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.33</c:v>
+                  <c:v>7.27</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.33</c:v>
+                  <c:v>7.27</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.33</c:v>
+                  <c:v>7.27</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.33</c:v>
+                  <c:v>7.27</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.33</c:v>
+                  <c:v>7.27</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.33</c:v>
+                  <c:v>7.27</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.33</c:v>
+                  <c:v>7.27</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.33</c:v>
+                  <c:v>7.27</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.33</c:v>
+                  <c:v>7.27</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.33</c:v>
+                  <c:v>7.27</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.33</c:v>
+                  <c:v>7.27</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.33</c:v>
+                  <c:v>7.27</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.33</c:v>
+                  <c:v>7.27</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.33</c:v>
+                  <c:v>7.27</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.33</c:v>
+                  <c:v>7.27</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.33</c:v>
+                  <c:v>7.27</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.33</c:v>
+                  <c:v>7.27</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.33</c:v>
+                  <c:v>7.27</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.33</c:v>
+                  <c:v>7.27</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.33</c:v>
+                  <c:v>7.27</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6.33</c:v>
+                  <c:v>7.27</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.33</c:v>
+                  <c:v>7.27</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6.33</c:v>
+                  <c:v>7.27</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.33</c:v>
+                  <c:v>7.27</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.33</c:v>
+                  <c:v>7.27</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.33</c:v>
+                  <c:v>7.27</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6.33</c:v>
+                  <c:v>7.27</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.33</c:v>
+                  <c:v>7.27</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6.33</c:v>
+                  <c:v>7.27</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6.33</c:v>
+                  <c:v>7.27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3569,15 +3569,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>137172</xdr:colOff>
+      <xdr:colOff>3822</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>102879</xdr:rowOff>
+      <xdr:rowOff>131454</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3606,7 +3606,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5895975" y="2914650"/>
+          <a:off x="5762625" y="2943225"/>
           <a:ext cx="5852172" cy="4389129"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3705,106 +3705,6 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>489597</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>74304</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="圖片 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BE88520-9B8A-470C-9D36-86AF0B752C86}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9906000" y="2886075"/>
-          <a:ext cx="5852172" cy="4389129"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>489597</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>112404</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="圖片 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D206AAC-2F79-4420-9532-C2876640CD77}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4419600" y="2924175"/>
-          <a:ext cx="5852172" cy="4389129"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4505,7 +4405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FDA256B-DC29-4143-B768-1CA233B3CDB4}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -4683,8 +4583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3AD492-D7C7-4493-A452-D08A68A80FDE}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4719,7 +4619,7 @@
         <v>301.67188504656099</v>
       </c>
       <c r="D2">
-        <v>6.33</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4733,7 +4633,7 @@
         <v>30.844468358815</v>
       </c>
       <c r="D3">
-        <v>6.33</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -4747,7 +4647,7 @@
         <v>15.2429220433035</v>
       </c>
       <c r="D4">
-        <v>6.33</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -4761,7 +4661,7 @@
         <v>12.7465163836663</v>
       </c>
       <c r="D5">
-        <v>6.33</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -4775,7 +4675,7 @@
         <v>13.8961489418698</v>
       </c>
       <c r="D6">
-        <v>6.33</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4789,7 +4689,7 @@
         <v>12.910542811715199</v>
       </c>
       <c r="D7">
-        <v>6.33</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4803,7 +4703,7 @@
         <v>11.0819812405396</v>
       </c>
       <c r="D8">
-        <v>6.33</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -4817,7 +4717,7 @@
         <v>9.1942012340353898</v>
       </c>
       <c r="D9">
-        <v>6.33</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -4831,7 +4731,7 @@
         <v>8.2866250653542508</v>
       </c>
       <c r="D10">
-        <v>6.33</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -4845,7 +4745,7 @@
         <v>6.7201179208792796</v>
       </c>
       <c r="D11">
-        <v>6.33</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -4859,7 +4759,7 @@
         <v>5.5550918171122499</v>
       </c>
       <c r="D12">
-        <v>6.33</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -4873,7 +4773,7 @@
         <v>5.1751586822415403</v>
       </c>
       <c r="D13">
-        <v>6.33</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -4887,7 +4787,7 @@
         <v>4.4549986350345696</v>
       </c>
       <c r="D14">
-        <v>6.33</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -4901,7 +4801,7 @@
         <v>3.99830041997402</v>
       </c>
       <c r="D15">
-        <v>6.33</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -4915,7 +4815,7 @@
         <v>3.6304826511955</v>
       </c>
       <c r="D16">
-        <v>6.33</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -4929,7 +4829,7 @@
         <v>3.64695952361425</v>
       </c>
       <c r="D17">
-        <v>6.33</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -4943,7 +4843,7 @@
         <v>3.4106229831560499</v>
       </c>
       <c r="D18">
-        <v>6.33</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -4957,7 +4857,7 @@
         <v>3.2132424042837502</v>
       </c>
       <c r="D19">
-        <v>6.33</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -4971,7 +4871,7 @@
         <v>2.97664769761397</v>
       </c>
       <c r="D20">
-        <v>6.33</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -4985,7 +4885,7 @@
         <v>2.8220776371571499</v>
       </c>
       <c r="D21">
-        <v>6.33</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -4999,7 +4899,7 @@
         <v>2.72869951958483</v>
       </c>
       <c r="D22">
-        <v>6.33</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -5013,7 +4913,7 @@
         <v>2.6005216084145202</v>
       </c>
       <c r="D23">
-        <v>6.33</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -5027,7 +4927,7 @@
         <v>2.4467515383906502</v>
       </c>
       <c r="D24">
-        <v>6.33</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -5041,7 +4941,7 @@
         <v>2.30973757086596</v>
       </c>
       <c r="D25">
-        <v>6.33</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -5055,7 +4955,7 @@
         <v>2.2157595181010001</v>
       </c>
       <c r="D26">
-        <v>6.33</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -5069,7 +4969,7 @@
         <v>2.1581389919168199</v>
       </c>
       <c r="D27">
-        <v>6.33</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -5083,7 +4983,7 @@
         <v>2.0238343257515199</v>
       </c>
       <c r="D28">
-        <v>6.33</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -5097,7 +4997,7 @@
         <v>1.9052515862428101</v>
       </c>
       <c r="D29">
-        <v>6.33</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -5111,7 +5011,7 @@
         <v>1.77967983691028</v>
       </c>
       <c r="D30">
-        <v>6.33</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -5125,7 +5025,7 @@
         <v>1.7232557955400201</v>
       </c>
       <c r="D31">
-        <v>6.33</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -5139,7 +5039,7 @@
         <v>1.6532413892251701</v>
       </c>
       <c r="D32">
-        <v>6.33</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -5153,7 +5053,7 @@
         <v>1.60493455926603</v>
       </c>
       <c r="D33">
-        <v>6.33</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -5167,7 +5067,7 @@
         <v>1.5439660386328</v>
       </c>
       <c r="D34">
-        <v>6.33</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -5181,7 +5081,7 @@
         <v>1.5153357868797399</v>
       </c>
       <c r="D35">
-        <v>6.33</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -5195,7 +5095,7 @@
         <v>1.46087922418188</v>
       </c>
       <c r="D36">
-        <v>6.33</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -5209,7 +5109,7 @@
         <v>1.42250372220982</v>
       </c>
       <c r="D37">
-        <v>6.33</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -5223,7 +5123,7 @@
         <v>1.37422118604309</v>
       </c>
       <c r="D38">
-        <v>6.33</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -5237,7 +5137,7 @@
         <v>1.3401173128766</v>
       </c>
       <c r="D39">
-        <v>6.33</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -5251,7 +5151,7 @@
         <v>1.31831042772499</v>
       </c>
       <c r="D40">
-        <v>6.33</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -5265,13 +5165,14 @@
         <v>1.3076775245217001</v>
       </c>
       <c r="D41">
-        <v>6.33</v>
+        <v>7.27</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/data/Scenario.xlsx
+++ b/data/Scenario.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20368"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FDE2E2-0927-4494-83C6-4249DC115955}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96725C9E-2228-4841-9C30-44F1240FF8B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -833,6 +833,7 @@
       <c:valAx>
         <c:axId val="997902272"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1976,6 +1977,7 @@
       <c:valAx>
         <c:axId val="994098960"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3533,15 +3535,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>433387</xdr:colOff>
+      <xdr:colOff>119062</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>128587</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>423862</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3674,15 +3676,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4406,7 +4408,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4584,7 +4586,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D41"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
